--- a/docss/trend/italy/E_huntington.xlsx
+++ b/docss/trend/italy/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\italy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>2003</v>
       </c>
       <c r="B2" s="7">
-        <v>0.13941658800467849</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="C2" s="7">
-        <v>0.17525384889449924</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D2" s="7">
-        <v>0.10455806460231543</v>
+        <v>0.105</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1597,14 +1597,14 @@
       <c r="A3">
         <v>2004</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.10439491574652493</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.1080122624989599</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.10198291041888297</v>
+      <c r="B3">
+        <v>0.104</v>
+      </c>
+      <c r="C3">
+        <v>0.108</v>
+      </c>
+      <c r="D3">
+        <v>0.10199999999999999</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -1612,14 +1612,14 @@
       <c r="A4">
         <v>2005</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.12755689246114343</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.10970258107408881</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.1457089651376009</v>
+      <c r="B4">
+        <v>0.128</v>
+      </c>
+      <c r="C4">
+        <v>0.11</v>
+      </c>
+      <c r="D4">
+        <v>0.14599999999999999</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -1627,14 +1627,14 @@
       <c r="A5">
         <v>2006</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.13388976640999317</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.14322375110350549</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.12538351444527507</v>
+      <c r="B5">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.125</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -1642,14 +1642,14 @@
       <c r="A6">
         <v>2007</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.15701875649392605</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.17873637587763369</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.13785611593630165</v>
+      <c r="B6">
+        <v>0.157</v>
+      </c>
+      <c r="C6">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.13800000000000001</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -1657,14 +1657,14 @@
       <c r="A7">
         <v>2008</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.14365863986313343</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.16573681635782123</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.12253433745354414</v>
+      <c r="B7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.123</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -1672,14 +1672,14 @@
       <c r="A8">
         <v>2009</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.12718092207796872</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.15077028865925968</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.105127067072317</v>
+      <c r="B8">
+        <v>0.127</v>
+      </c>
+      <c r="C8">
+        <v>0.151</v>
+      </c>
+      <c r="D8">
+        <v>0.105</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -1687,14 +1687,14 @@
       <c r="A9">
         <v>2010</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.18357134563848376</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.18656260287389159</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.17814191337674856</v>
+      <c r="B9">
+        <v>0.184</v>
+      </c>
+      <c r="C9">
+        <v>0.187</v>
+      </c>
+      <c r="D9">
+        <v>0.17799999999999999</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -1705,9 +1705,6 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
   </sheetData>
